--- a/Dataset/Folds/Fold_4/Excel/33.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/33.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1091,6 +1091,118 @@
   </si>
   <si>
     <t>[Henry%Brandon Michael%coreGivesNoEmail%1,                          Lippi%Giuseppe%coreGivesNoEmail%4,                          Plebani%Mario%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                            Dingyu%Zhang%NULL%1,                            Wenling%Wang%NULL%1,                            Xingwang%Li%NULL%0,                            Bo%Yang%NULL%3,                            Jingdong%Song%NULL%1,                            Xiang%Zhao%NULL%1,                            Baoying%Huang%NULL%1,                            Weifeng%Shi%NULL%1,                            Roujian%Lu%NULL%1,                            Peihua%Niu%NULL%1,                            Faxian%Zhan%NULL%1,                            Xuejun%Ma%NULL%1,                            Dayan%Wang%NULL%1,                            Wenbo%Xu%NULL%1,                            Guizhen%Wu%NULL%1,                            George F.%Gao%NULL%2,                            Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoxia%Lu%NULL%1,                            Liqiong%Zhang%NULL%1,                            Hui%Du%NULL%3,                            Jingjing%Zhang%NULL%2,                            Jingjing%Zhang%NULL%0,                            Yuan Y.%Li%NULL%1,                            Jingyu%Qu%NULL%1,                            Wenxin%Zhang%NULL%1,                            Youjie%Wang%NULL%1,                            Shuangshuang%Bao%NULL%1,                            Ying%Li%NULL%2,                            Chuansha%Wu%NULL%1,                            Hongxiu%Liu%NULL%1,                            Di%Liu%NULL%0,                            Di%Liu%NULL%0,                            Jianbo%Shao%NULL%3,                            Jianbo%Shao%NULL%0,                            Jianbo%Shao%NULL%0,                            Xuehua%Peng%NULL%1,                            Yonghong%Yang%NULL%2,                            Yonghong%Yang%NULL%0,                            Zhisheng%Liu%NULL%3,                            Zhisheng%Liu%NULL%0,                            Zhisheng%Liu%NULL%0,                            Yun%Xiang%NULL%1,                            Furong%Zhang%NULL%1,                            Rona M.%Silva%NULL%2,                            Rona M.%Silva%NULL%0,                            Kent E.%Pinkerton%NULL%1,                            Kunling%Shen%NULL%2,                            Kunling%Shen%NULL%0,                            Han%Xiao%NULL%3,                            Han%Xiao%NULL%0,                            Shunqing%Xu%NULL%2,                            Shunqing%Xu%NULL%0,                            Gary W.K.%Wong%NULL%2,                            Gary W.K.%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruiyun%Li%NULL%1,                            Sen%Pei%NULL%2,                            Sen%Pei%NULL%0,                            Bin%Chen%NULL%2,                            Bin%Chen%NULL%0,                            Yimeng%Song%NULL%2,                            Yimeng%Song%NULL%0,                            Tao%Zhang%NULL%3,                            Tao%Zhang%NULL%0,                            Wan%Yang%NULL%1,                            Jeffrey%Shaman%NULL%2,                            Jeffrey%Shaman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%3,                            Hui%Li%NULL%0,                            Xiao-Xia%Lu%NULL%1,                            Han%Xiao%NULL%0,                            Jie%Ren%NULL%1,                            Fu-Rong%Zhang%792523496@qq.com%1,                            Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Hin%Chu%kyyuen@hku.hk%1,                            Jie%Zhou%NULL%1,                            Bosco Ho-Yin%Wong%NULL%1,                            Cun%Li%NULL%1,                            Jasper Fuk-Woo%Chan%NULL%0,                            Zhong-Shan%Cheng%NULL%1,                            Dong%Yang%NULL%1,                            Dong%Wang%NULL%1,                            Andrew Chak-Yiu%Lee%NULL%1,                            Chuangen%Li%NULL%1,                            Man-Lung%Yeung%NULL%1,                            Jian-Piao%Cai%NULL%0,                            Ivy Hau-Yee%Chan%NULL%1,                            Wai-Kuen%Ho%NULL%1,                            Kelvin Kai-Wang%To%NULL%2,                            Bo-Jian%Zheng%NULL%1,                            Yanfeng%Yao%NULL%1,                            Chuan%Qin%NULL%2,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William J.%Liu%liujun@ivdc.chinacdc.cn%1,                            Min%Zhao%NULL%2,                            Kefang%Liu%NULL%1,                            Kun%Xu%NULL%1,                            Gary%Wong%NULL%1,                            Wenjie%Tan%NULL%0,                            George F.%Gao%gaofu@chinacdc.cn%0]</t>
+  </si>
+  <si>
+    <t>[Na%Zhu%NULL%0,                             Dingyu%Zhang%NULL%1,                             Wenling%Wang%NULL%1,                             Xingwang%Li%NULL%0,                             Bo%Yang%NULL%3,                             Jingdong%Song%NULL%1,                             Xiang%Zhao%NULL%1,                             Baoying%Huang%NULL%1,                             Weifeng%Shi%NULL%1,                             Roujian%Lu%NULL%1,                             Peihua%Niu%NULL%1,                             Faxian%Zhan%NULL%1,                             Xuejun%Ma%NULL%1,                             Dayan%Wang%NULL%1,                             Wenbo%Xu%NULL%1,                             Guizhen%Wu%NULL%1,                             George F.%Gao%NULL%2,                             Wenjie%Tan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoxia%Lu%NULL%1,                             Liqiong%Zhang%NULL%1,                             Hui%Du%NULL%3,                             Jingjing%Zhang%NULL%2,                             Jingjing%Zhang%NULL%0,                             Yuan Y.%Li%NULL%1,                             Jingyu%Qu%NULL%1,                             Wenxin%Zhang%NULL%1,                             Youjie%Wang%NULL%1,                             Shuangshuang%Bao%NULL%1,                             Ying%Li%NULL%2,                             Chuansha%Wu%NULL%1,                             Hongxiu%Liu%NULL%1,                             Di%Liu%NULL%0,                             Di%Liu%NULL%0,                             Jianbo%Shao%NULL%3,                             Jianbo%Shao%NULL%0,                             Jianbo%Shao%NULL%0,                             Xuehua%Peng%NULL%1,                             Yonghong%Yang%NULL%2,                             Yonghong%Yang%NULL%0,                             Zhisheng%Liu%NULL%3,                             Zhisheng%Liu%NULL%0,                             Zhisheng%Liu%NULL%0,                             Yun%Xiang%NULL%1,                             Furong%Zhang%NULL%1,                             Rona M.%Silva%NULL%2,                             Rona M.%Silva%NULL%0,                             Kent E.%Pinkerton%NULL%1,                             Kunling%Shen%NULL%2,                             Kunling%Shen%NULL%0,                             Han%Xiao%NULL%3,                             Han%Xiao%NULL%0,                             Shunqing%Xu%NULL%2,                             Shunqing%Xu%NULL%0,                             Gary W.K.%Wong%NULL%2,                             Gary W.K.%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruiyun%Li%NULL%1,                             Sen%Pei%NULL%2,                             Sen%Pei%NULL%0,                             Bin%Chen%NULL%2,                             Bin%Chen%NULL%0,                             Yimeng%Song%NULL%2,                             Yimeng%Song%NULL%0,                             Tao%Zhang%NULL%3,                             Tao%Zhang%NULL%0,                             Wan%Yang%NULL%1,                             Jeffrey%Shaman%NULL%2,                             Jeffrey%Shaman%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%3,                             Hui%Li%NULL%0,                             Xiao-Xia%Lu%NULL%1,                             Han%Xiao%NULL%0,                             Jie%Ren%NULL%1,                             Fu-Rong%Zhang%792523496@qq.com%1,                             Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Hin%Chu%kyyuen@hku.hk%1,                             Jie%Zhou%NULL%1,                             Bosco Ho-Yin%Wong%NULL%1,                             Cun%Li%NULL%1,                             Jasper Fuk-Woo%Chan%NULL%0,                             Zhong-Shan%Cheng%NULL%1,                             Dong%Yang%NULL%1,                             Dong%Wang%NULL%1,                             Andrew Chak-Yiu%Lee%NULL%1,                             Chuangen%Li%NULL%1,                             Man-Lung%Yeung%NULL%1,                             Jian-Piao%Cai%NULL%0,                             Ivy Hau-Yee%Chan%NULL%1,                             Wai-Kuen%Ho%NULL%1,                             Kelvin Kai-Wang%To%NULL%2,                             Bo-Jian%Zheng%NULL%1,                             Yanfeng%Yao%NULL%1,                             Chuan%Qin%NULL%2,                             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William J.%Liu%liujun@ivdc.chinacdc.cn%1,                             Min%Zhao%NULL%2,                             Kefang%Liu%NULL%1,                             Kun%Xu%NULL%1,                             Gary%Wong%NULL%1,                             Wenjie%Tan%NULL%0,                             George F.%Gao%gaofu@chinacdc.cn%0]</t>
+  </si>
+  <si>
+    <t>In December 2019, a cluster of patients with pneumonia of unknown cause was linked to a seafood wholesale market in Wuhan, China.
+ A previously unknown betacoronavirus was discovered through the use of unbiased sequencing in samples from patients with pneumonia.
+ Human airway epithelial cells were used to isolate a novel coronavirus, named 2019-nCoV, which formed a clade within the subgenus sarbecovirus, Orthocoronavirinae subfamily.
+ Different from both MERS-CoV and SARS-CoV, 2019-nCoV is the seventh member of the family of coronaviruses that infect humans.
+ Enhanced surveillance and further investigation are ongoing.
+ (Funded by the National Key Research and Development Program of China and the National Major Project for Control and Prevention of Infectious Disease in China.
+)</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Xiaoxia%Lu%NULL%0, Liqiong%Zhang%NULL%1, Hui%Du%NULL%0, Jingjing%Zhang%NULL%2, Jingjing%Zhang%NULL%0, Yuan Y.%Li%NULL%1, Jingyu%Qu%NULL%1, Wenxin%Zhang%NULL%1, Youjie%Wang%NULL%1, Shuangshuang%Bao%NULL%1, Ying%Li%NULL%2, Chuansha%Wu%NULL%1, Hongxiu%Liu%NULL%1, Di%Liu%NULL%0, Di%Liu%NULL%0, Jianbo%Shao%NULL%5, Jianbo%Shao%NULL%0, Jianbo%Shao%NULL%0, Xuehua%Peng%NULL%5, Yonghong%Yang%NULL%2, Yonghong%Yang%NULL%0, Zhisheng%Liu%NULL%3, Zhisheng%Liu%NULL%0, Zhisheng%Liu%NULL%0, Yun%Xiang%NULL%1, Furong%Zhang%NULL%1, Rona M.%Silva%NULL%2, Rona M.%Silva%NULL%0, Kent E.%Pinkerton%NULL%1, Kunling%Shen%NULL%2, Kunling%Shen%NULL%0, Han%Xiao%NULL%0, Han%Xiao%NULL%0, Shunqing%Xu%NULL%2, Shunqing%Xu%NULL%0, Gary W.K.%Wong%NULL%2, Gary W.K.%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonas F.%Ludvigsson%jonasludvigsson@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The virus causing coronavirus disease 2019 (COVID-19) has now become pandemic.
+ How has it managed to spread from China to all around the world within 3 to 4 months? Li et al.
+ used multiple sources to infer the proportion of early infections that went undetected and their contribution to virus spread.
+ The researchers combined data from Tencent, one of the world's largest social media and technology companies, with a networked dynamic metapopulation model and Bayesian inference to analyze early spread within China.
+ They estimate that ∼86% of cases were undocumented before travel restrictions were put in place.
+ Before travel restriction and personal isolation were implemented, the transmission rate of undocumented infections was a little more than half that of the known cases.
+ However, because of their greater numbers, undocumented infections were the source for ∼80% of the documented cases.
+ Immediately after travel restrictions were imposed, ∼65% of cases were documented.
+ These findings help to explain the lightning-fast spread of this virus around the world.
+</t>
+  </si>
+  <si>
+    <t>[Ruiyun%Li%NULL%0, Sen%Pei%NULL%2, Sen%Pei%NULL%0, Bin%Chen%NULL%2, Bin%Chen%NULL%0, Yimeng%Song%NULL%2, Yimeng%Song%NULL%0, Tao%Zhang%NULL%4, Tao%Zhang%NULL%0, Wan%Yang%NULL%1, Jeffrey%Shaman%NULL%2, Jeffrey%Shaman%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Association for the Advancement of Science</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0, Hui%Li%NULL%0, Xiao-Xia%Lu%NULL%3, Han%Xiao%NULL%0, Jie%Ren%NULL%3, Fu-Rong%Zhang%792523496@qq.com%3, Zhi-Sheng%Liu%liuzsc@126.com%3]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East respiratory syndrome (MERS) is associated with a mortality rate of &amp;gt;35%.
+ We previously showed that MERS coronavirus (MERS-CoV) could infect human macrophages and dendritic cells and induce cytokine dysregulation.
+ Here, we further investigated the interplay between human primary T cells and MERS-CoV in disease pathogenesis.
+ Importantly, our results suggested that MERS-CoV efficiently infected T cells from the peripheral blood and from human lymphoid organs, including the spleen and the tonsil.
+ We further demonstrated that MERS-CoV infection induced apoptosis in T cells, which involved the activation of both the extrinsic and intrinsic apoptosis pathways.
+ Remarkably, immunostaining of spleen sections from MERS-CoV–infected common marmosets demonstrated the presence of viral nucleoprotein in their CD3+ T cells.
+ Overall, our results suggested that the unusual capacity of MERS-CoV to infect T cells and induce apoptosis might partly contribute to the high pathogenicity of the virus.
+</t>
+  </si>
+  <si>
+    <t>[Hin%Chu%kyyuen@hku.hk%0, Jie%Zhou%NULL%1, Bosco Ho-Yin%Wong%NULL%1, Cun%Li%NULL%1, Jasper Fuk-Woo%Chan%NULL%0, Zhong-Shan%Cheng%NULL%1, Dong%Yang%NULL%1, Dong%Wang%NULL%1, Andrew Chak-Yiu%Lee%NULL%1, Chuangen%Li%NULL%1, Man-Lung%Yeung%NULL%1, Jian-Piao%Cai%NULL%0, Ivy Hau-Yee%Chan%NULL%1, Wai-Kuen%Ho%NULL%1, Kelvin Kai-Wang%To%NULL%0, Bo-Jian%Zheng%NULL%1, Yanfeng%Yao%NULL%1, Chuan%Qin%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 12 years have elapsed since severe acute respiratory syndrome (SARS) triggered the first global alert for coronavirus infections.
+ Virus transmission in humans was quickly halted by public health measures and human infections of SARS coronavirus (SARS-CoV) have not been observed since.
+ However, other coronaviruses still pose a continuous threat to human health, as exemplified by the recent emergence of Middle East respiratory syndrome (MERS) in humans.
+ The work on SARS-CoV widens our knowledge on the epidemiology, pathophysiology and immunology of coronaviruses and may shed light on MERS coronavirus (MERS-CoV).
+ It has been confirmed that T-cell immunity plays an important role in recovery from SARS-CoV infection.
+ Herein, we summarize T-cell immunological studies of SARS-CoV and discuss the potential cross-reactivity of the SARS-CoV-specific immunity against MERS-CoV, which may provide useful recommendations for the development of broad-spectrum vaccines against coronavirus infections.
+</t>
+  </si>
+  <si>
+    <t>[William J.%Liu%liujun@ivdc.chinacdc.cn%0, Min%Zhao%NULL%0, Kefang%Liu%NULL%1, Kun%Xu%NULL%1, Gary%Wong%NULL%1, Wenjie%Tan%NULL%0, George F.%Gao%gaofu@chinacdc.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1588,10 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1491,10 +1603,10 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -1511,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1523,10 +1635,10 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
@@ -1569,25 +1681,25 @@
         <v>43983.0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -1607,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1619,10 +1731,10 @@
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
@@ -1633,28 +1745,28 @@
         <v>44044.0</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1668,10 +1780,10 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -1683,10 +1795,10 @@
         <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
@@ -1697,25 +1809,25 @@
         <v>43983.0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -1732,10 +1844,10 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1747,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -1764,10 +1876,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1779,10 +1891,10 @@
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
@@ -1796,10 +1908,10 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -1811,10 +1923,10 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
@@ -1825,25 +1937,25 @@
         <v>43891.0</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
